--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang03/XKBH_TienLong_180324.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang03/XKBH_TienLong_180324.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>Mã thiết bị</t>
-  </si>
-  <si>
-    <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
   </si>
   <si>
     <t>Tên Khách hàng:  Đại lý Tiến Long</t>
@@ -1267,6 +1264,69 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,80 +1354,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1390,38 +1420,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1486,15 +1492,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,8 +1531,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1558,28 +1579,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1603,29 +1624,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1640,15 +1646,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,7 +1688,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1740,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1789,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1841,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1890,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1988,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2037,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2086,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2130,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2204,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,57 +2545,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="96" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="96"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="96" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="96"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="96" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="96"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2625,29 +2622,29 @@
       <c r="A8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="69" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98" t="s">
+      <c r="J8" s="101"/>
+      <c r="K8" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="98"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="69" t="s">
         <v>4</v>
       </c>
@@ -2656,86 +2653,86 @@
       <c r="A9" s="70">
         <v>1</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="68" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="68">
         <v>985</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="103" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="103"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="70">
         <v>2</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="68" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="68">
         <v>985</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="103" t="s">
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="103"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="68" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="68">
         <v>985</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103" t="s">
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="103"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="70">
         <v>4</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="68" t="s">
         <v>92</v>
       </c>
@@ -2743,58 +2740,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103" t="s">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="67"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="110" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="110" t="s">
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="112"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="113" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="113" t="s">
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2857,25 +2854,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="116" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="116" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="118"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2888,19 +2885,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2917,12 +2907,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -2956,51 +2953,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="96" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="96"/>
+      <c r="K2" s="117"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="96"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="96" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="96"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3027,23 +3024,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="104" t="s">
+      <c r="G8" s="106"/>
+      <c r="H8" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="105"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="106"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3052,46 +3049,46 @@
       <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="120">
         <v>6</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="119" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>2</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="120">
         <v>4</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="119" t="s">
+      <c r="G10" s="122"/>
+      <c r="H10" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="120"/>
-      <c r="J10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
       <c r="K10" s="73" t="s">
         <v>113</v>
       </c>
@@ -3100,65 +3097,65 @@
       <c r="A11" s="73">
         <v>3</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="120">
         <v>2</v>
       </c>
-      <c r="G11" s="121"/>
-      <c r="H11" s="119" t="s">
+      <c r="G11" s="122"/>
+      <c r="H11" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
       <c r="K11" s="73" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="110" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="110" t="s">
+      <c r="G13" s="100"/>
+      <c r="H13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="113" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="113" t="s">
+      <c r="G14" s="91"/>
+      <c r="H14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="115"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3213,23 +3210,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="116" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3242,6 +3239,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3251,24 +3266,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3286,7 +3283,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3296,7 +3293,7 @@
     <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
     <col min="8" max="12" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" customWidth="1"/>
@@ -3304,69 +3301,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="131" t="s">
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="137" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="137"/>
+      <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="137" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="137"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="137"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:7" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
+      <c r="A4" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
     </row>
     <row r="5" spans="1:7" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
+      <c r="E5" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:7" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
+      <c r="A6" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:7" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3401,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="86" t="s">
         <v>125</v>
@@ -3411,51 +3408,51 @@
       </c>
       <c r="E9" s="88"/>
       <c r="F9" s="87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="128" t="s">
+      <c r="B11" s="136"/>
+      <c r="C11" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128" t="s">
+      <c r="D11" s="139"/>
+      <c r="E11" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="128"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="77" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126" t="s">
+      <c r="B12" s="137"/>
+      <c r="C12" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="82" t="s">
         <v>6</v>
       </c>
@@ -3491,8 +3488,8 @@
       <c r="C16" s="64"/>
       <c r="D16" s="72"/>
       <c r="E16" s="64"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="62"/>
@@ -3504,37 +3501,37 @@
       <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="129" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
     </row>
     <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3567,16 +3564,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="A11:B11"/>
@@ -3589,6 +3576,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3618,99 +3615,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150"/>
-      <c r="B1" s="130"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="141" t="s">
+      <c r="A1" s="153"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="96" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="96"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="96" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="96"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <v>1</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="75" t="s">
         <v>118</v>
       </c>
@@ -3736,36 +3733,36 @@
       <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="162"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161" t="s">
+      <c r="B10" s="164"/>
+      <c r="C10" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161" t="s">
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="161"/>
+      <c r="H10" s="164"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -3778,34 +3775,27 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159" t="s">
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="159"/>
+      <c r="H15" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -3822,6 +3812,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -3851,8 +3848,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="168" t="s">
         <v>15</v>
       </c>
@@ -3863,8 +3860,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="171"/>
       <c r="D3" s="172"/>
       <c r="E3" s="173"/>
@@ -3873,8 +3870,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="174"/>
       <c r="D4" s="175"/>
       <c r="E4" s="176"/>
@@ -4195,78 +4192,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="182" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="193"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="184"/>
-      <c r="L3" s="185"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="193"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181" t="s">
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4358,58 +4355,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="178" t="s">
+      <c r="E21" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="178" t="s">
+      <c r="F21" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178" t="s">
+      <c r="G21" s="182"/>
+      <c r="H21" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="178" t="s">
+      <c r="I21" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="178" t="s">
+      <c r="J21" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="188" t="s">
+      <c r="K21" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="186" t="s">
+      <c r="L21" s="178" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="193"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="178"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="182"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="187"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="179"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4454,12 +4451,12 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="192" t="s">
+      <c r="D26" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="165" t="s">
@@ -4527,74 +4524,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="191"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="191" t="s">
+      <c r="A33" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="190"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -4602,6 +4599,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -4618,22 +4631,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4666,62 +4663,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="206" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="193"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="185"/>
+      <c r="K3" s="193"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="185"/>
+      <c r="K4" s="193"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4735,12 +4732,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -4770,10 +4767,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="202" t="s">
+      <c r="J7" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="203"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -4787,8 +4784,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="204"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -4802,8 +4799,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="204"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -4817,8 +4814,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -4832,8 +4829,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="206"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -4847,8 +4844,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="206"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -4862,14 +4859,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="206"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="205"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -4877,44 +4874,35 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="208"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="194" t="s">
+      <c r="E16" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="202"/>
+      <c r="G16" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194" t="s">
+      <c r="H16" s="202"/>
+      <c r="I16" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="202"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -4926,6 +4914,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -4965,48 +4962,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="183" t="s">
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="183" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="183" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="185"/>
+      <c r="J4" s="193"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5052,11 +5049,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5066,174 +5063,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="209" t="s">
+      <c r="H8" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="213"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="214"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="209"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="214"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="214"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="209"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="214"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="209"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="214"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="209"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="214"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="209"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="214"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="214"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="214"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="214"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="211"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5248,42 +5245,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5293,9 +5290,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5305,9 +5302,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5317,9 +5314,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5327,6 +5324,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -5334,38 +5363,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
